--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloncha/Documents/GitHub/ISYE6416-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3BC2B8-9F9B-304A-80E8-860E092FCE25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1983F243-3A88-0146-879D-6255DC1BCDDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="2420" windowWidth="34600" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52300" yWindow="460" windowWidth="28320" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_EJSCREEEN_Full_explained" sheetId="1" r:id="rId1"/>
@@ -199,52 +199,52 @@
     <t>dependent</t>
   </si>
   <si>
-    <t>crude prevalence of current lack of health insurance among adults aged 18-64 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of binge drinking among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of taking medicine for high blood pressure control among adults aged &gt;=18 years with high blood pressure, 2017</t>
-  </si>
-  <si>
-    <t>crude prevalence of cancer (excluding skin cancer) among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of coronary heart disease among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of visits to doctor for routine checkup within the past year among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of cholesterol screening among adults aged &gt;=18 years, 2017</t>
-  </si>
-  <si>
-    <t>crude prevalence of fecal occult blood test, sigmoidoscopy, or colonoscopy among adults aged 50–75 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of older adult men aged &gt;=65 years who are up to date on a core set of clinical preventive services: Flu shot past year, PPV shot ever, Colorectal cancer screening, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of older adult women aged &gt;=65 years who are up to date on a core set of clinical preventive services: Flu shot past year, PPV shot ever, Colorectal cancer screening, and Mammogram past 2 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of current smoking among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of visits to dentist or dental clinic among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of no leisure-time physical activity among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of mammography use among women aged 50–74 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of sleeping less than 7 hours among adults aged &gt;=18 years, 2018</t>
-  </si>
-  <si>
-    <t>crude prevalence of mental health not good for &gt;=14 days among adults aged &gt;=18 years, 2018</t>
+    <t xml:space="preserve">crude prevalence of current lack of health insurance </t>
+  </si>
+  <si>
+    <t>crude prevalence of binge drinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of taking medicine for high blood pressure control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of visits to doctor for routine checkup within the past year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of cholesterol screening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of fecal occult blood test, sigmoidoscopy, or colonoscopy </t>
+  </si>
+  <si>
+    <t>crude prevalence of older adult men who are up to date on a core set of clinical preventive services</t>
+  </si>
+  <si>
+    <t>crude prevalence of older adult women who are up to date on a core set of clinical preventive services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of current smoking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of visits to dentist or dental clinic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of no leisure-time physical activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of mammography use among women </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of sleeping less than 7 hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of cancer (excluding skin cancer) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of coronary heart disease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude prevalence of mental health not good for &gt;=14 days </t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B40" sqref="B39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1330,7 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -1352,7 +1352,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -1363,7 +1363,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1374,7 +1374,7 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -1385,7 +1385,7 @@
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1396,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -1407,7 +1407,7 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -1418,7 +1418,7 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -1429,7 +1429,7 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -1440,7 +1440,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
@@ -1451,7 +1451,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
